--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91382.42249329542</v>
+        <v>16545002.98113034</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91382.42249329542</v>
+        <v>16545002.98113034</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21226.55591379047</v>
+        <v>2590225.530266547</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21226.55591379047</v>
+        <v>2590225.530266547</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342106332.026125</v>
+        <v>52359127.62148052</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10650.47046241084</v>
+        <v>1181004.313565586</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20392.54123070811</v>
+        <v>2219468.664360816</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30134.61199900536</v>
+        <v>3257933.015156046</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40090.66497499548</v>
+        <v>4265844.10288016</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49843.37760651261</v>
+        <v>5307985.13920249</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59553.17588682622</v>
+        <v>6355870.894563016</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69198.57454752759</v>
+        <v>7460757.927499355</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78876.80713943287</v>
+        <v>8558513.833694628</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88834.16695674921</v>
+        <v>9573554.348775912</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98424.37545147579</v>
+        <v>10662152.74935016</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107876.5300417386</v>
+        <v>11760371.77122624</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>117308.9720709499</v>
+        <v>12856501.26163087</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>126741.4141001612</v>
+        <v>13952630.75203553</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>136618.4388982475</v>
+        <v>14967994.72269967</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>147651.5941219328</v>
+        <v>15731842.37123844</v>
       </c>
     </row>
   </sheetData>
@@ -27043,7 +27043,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>367</v>
@@ -27055,7 +27055,7 @@
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>2.821097331387656e-11</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>110</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>145.0000000000514</v>
